--- a/reports/corpus_1-unigram_bigram_trigram-fold-2.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,170 +446,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CDC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>CON</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>SYM</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -622,112 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8363636363636363</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="I2" t="n">
-        <v>0.625</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.7008547008547008</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.28</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.7164179104477612</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5660377358490566</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06578947368421052</v>
+        <v>0.354978354978355</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.7539267015706806</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.369098712446352</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.624045167718366</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.4731636004351343</v>
       </c>
       <c r="X2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0131578947368421</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.07964601769911504</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.3578138343296328</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.220938585244057</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.8931184896869876</v>
+        <v>0.8586138975081227</v>
       </c>
     </row>
     <row r="3">
@@ -737,112 +633,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9699248120300752</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9928057553956835</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.3682652457075192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.625</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08118081180811808</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.624045167718366</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.7808884190652476</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.3578138343296328</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.5638236609638823</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.3578138343296328</v>
+        <v>0.624045167718366</v>
       </c>
     </row>
     <row r="4">
@@ -852,112 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9108910891089108</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.8012422360248447</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9616724738675959</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.8118811881188118</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.4375000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.8347826086956522</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7228915662650602</v>
+        <v>0.5382951103418433</v>
       </c>
       <c r="O4" t="n">
-        <v>0.119047619047619</v>
+        <v>0.5189873417721519</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8597014925373135</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4872521246458923</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1501706484641638</v>
+        <v>0.8031496062992127</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.3126110124333925</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07843137254901959</v>
+        <v>0.624045167718366</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.5396528694321716</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5074626865671642</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.3673469387755102</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.02597402597402598</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.4444444444444445</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.1475409836065574</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.3578138343296328</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.2568497171308808</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.3302464775824892</v>
+        <v>0.6373024748040936</v>
       </c>
     </row>
     <row r="5">
@@ -967,112 +785,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L5" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>1689</v>
       </c>
       <c r="O5" t="n">
+        <v>85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>120</v>
+      </c>
+      <c r="R5" t="n">
+        <v>106</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>101</v>
+      </c>
+      <c r="U5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10</v>
-      </c>
-      <c r="R5" t="n">
-        <v>813</v>
-      </c>
-      <c r="S5" t="n">
-        <v>9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>9</v>
-      </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>0.624045167718366</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.3578138343296328</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1171</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1171</v>
+        <v>3011</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram_trigram-fold-2.xlsx
+++ b/reports/corpus_1-unigram_bigram_trigram-fold-2.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9576719576719577</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9797297297297297</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9701492537313433</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9790996784565916</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.5844155844155844</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.9633507853403142</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8454935622317596</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.8378378378378378</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5800865800865801</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9324324324324325</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7008547008547008</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2235294117647059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.7164179104477612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.354978354978355</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7539267015706806</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.369098712446352</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.6891891891891891</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="V2" t="n">
-        <v>0.624045167718366</v>
+        <v>0.8375954832281634</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4731636004351343</v>
+        <v>0.840155452801449</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8586138975081227</v>
+        <v>0.8830001136389114</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -642,25 +642,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.9699248120300752</v>
+        <v>0.9627659574468085</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9928057553956835</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9647058823529412</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>0.95</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -669,37 +669,37 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3682652457075192</v>
+        <v>0.6096096096096096</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9647058823529412</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9622641509433962</v>
+        <v>0.9253731343283582</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.9337979094076655</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="V3" t="n">
-        <v>0.624045167718366</v>
+        <v>0.8375954832281634</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7808884190652476</v>
+        <v>0.9416339591114949</v>
       </c>
       <c r="X3" t="n">
-        <v>0.624045167718366</v>
+        <v>0.8375954832281634</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8012422360248447</v>
+        <v>0.9602122015915119</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9616724738675959</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8118811881188118</v>
+        <v>0.943231441048035</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3619047619047619</v>
+        <v>0.7612456747404844</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4375000000000001</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8347826086956522</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5382951103418433</v>
+        <v>0.7513880320789637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5189873417721519</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8597014925373135</v>
+        <v>0.9813333333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4872521246458923</v>
+        <v>0.8418803418803419</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8031496062992127</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3126110124333925</v>
+        <v>0.7156208277703604</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="V4" t="n">
-        <v>0.624045167718366</v>
+        <v>0.8375954832281634</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5396528694321716</v>
+        <v>0.8747490569911669</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6373024748040936</v>
+        <v>0.8381338644975911</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>278</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="I5" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K5" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M5" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>1689</v>
+        <v>999</v>
       </c>
       <c r="O5" t="n">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="P5" t="n">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="n">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="R5" t="n">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>0.624045167718366</v>
+        <v>0.8375954832281634</v>
       </c>
       <c r="W5" t="n">
         <v>3011</v>
